--- a/biology/Zoologie/Cataglyphis_bicolor/Cataglyphis_bicolor.xlsx
+++ b/biology/Zoologie/Cataglyphis_bicolor/Cataglyphis_bicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cataglyphis bicolor, en langue vernaculaire fourmi du Sahara, est une espèce de fourmis du genre Cataglyphis. Cette espèce thermophile vit dans les déserts d'Afrique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce qui vit dans le Sahara est l'une des espèces de son règne les plus tolérantes à la chaleur. Quatre autres espèces proches vivent également dans le Sahara: Cataglyphis bombycinus, Cataglyphis savignyi, Cataglyphis mauritanicus et Cataglyphis fortis.
 Elle peut supporter des températures entre et 50° et 70°.
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cataglyphis bicolor adustus Santschi, 1929
 Cataglyphis bicolor basalis Santschi, 1929
